--- a/MainTop/19.05.25/таня мес с 18.04.2025 по 18.05.2025/add/add.xlsx
+++ b/MainTop/19.05.25/таня мес с 18.04.2025 по 18.05.2025/add/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\19.05.25\таня мес с 18.04.2025 по 18.05.2025\add\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5BC181-7DD7-497E-8E92-C84A8355DF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DABB2A3-4783-4167-B977-BE6F803CF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Термонаклейка Девушка силует туман лес птицы</t>
   </si>
@@ -46,19 +46,35 @@
   </si>
   <si>
     <t>Термонаклейка Минни Маус и Дейзи утка</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лисёнок в свитере с узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лисёнок с розовыми щёчками</t>
+  </si>
+  <si>
+    <t>Термонаклейка Улыбающийся лисенок в снегу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -88,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -371,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,18 +433,42 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
